--- a/Test/MC_Ssf/T1/Sensors_data_1000016.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000016.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7143607183933736</v>
+        <v>0.9164032239156465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007122478477160007</v>
+        <v>0.002084504046753487</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0004835543704757583</v>
+        <v>-0.02121680330014897</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9990151428431467</v>
+        <v>0.9856005048029519</v>
       </c>
       <c r="D3" t="n">
-        <v>6.763557282521758e-05</v>
+        <v>0.0009888927539076536</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01051136093945887</v>
+        <v>0.02267807963595209</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8631780177956176</v>
+        <v>0.86724149314286</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004708730986480152</v>
+        <v>0.004568886409080473</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0006623041581406142</v>
+        <v>-0.0004530899500316821</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
